--- a/预测订货量结果.xlsx
+++ b/预测订货量结果.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4658.146578744368</v>
+        <v>6629.940362197416</v>
       </c>
       <c r="B2" t="n">
-        <v>23632.35534492258</v>
+        <v>26211.92410420753</v>
       </c>
       <c r="C2" t="n">
-        <v>9691.054561445431</v>
+        <v>9321.066567571506</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -473,13 +473,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4815.123778298151</v>
+        <v>9351.314320207515</v>
       </c>
       <c r="B3" t="n">
-        <v>11952.67610934025</v>
+        <v>10900.58593789605</v>
       </c>
       <c r="C3" t="n">
-        <v>9005.842897797675</v>
+        <v>8664.049585979834</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -489,13 +489,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1917.626707422174</v>
+        <v>3505.683116052753</v>
       </c>
       <c r="B4" t="n">
-        <v>13084.36219840142</v>
+        <v>12823.65530360649</v>
       </c>
       <c r="C4" t="n">
-        <v>9779.684445432513</v>
+        <v>9483.745335626179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -505,13 +505,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3953.147481927082</v>
+        <v>7000.331803541475</v>
       </c>
       <c r="B5" t="n">
-        <v>10808.66364538096</v>
+        <v>10647.89033103735</v>
       </c>
       <c r="C5" t="n">
-        <v>9597.28145000344</v>
+        <v>8922.509857955316</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -521,13 +521,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2514.106231514947</v>
+        <v>4156.916100877072</v>
       </c>
       <c r="B6" t="n">
-        <v>21425.35795230382</v>
+        <v>21913.19588663681</v>
       </c>
       <c r="C6" t="n">
-        <v>8642.340188428905</v>
+        <v>8009.364332520989</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -537,13 +537,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9054.08738348885</v>
+        <v>9014.9055693883</v>
       </c>
       <c r="B7" t="n">
-        <v>6760.955054435824</v>
+        <v>5063.066412122358</v>
       </c>
       <c r="C7" t="n">
-        <v>8762.998507290329</v>
+        <v>8370.965464200961</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -553,13 +553,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7019.144571315215</v>
+        <v>11269.77726357277</v>
       </c>
       <c r="B8" t="n">
-        <v>9241.862500005158</v>
+        <v>8298.737067527058</v>
       </c>
       <c r="C8" t="n">
-        <v>9220.753599927912</v>
+        <v>9080.181949019085</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -569,13 +569,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14168.89099706228</v>
+        <v>6870.163992706501</v>
       </c>
       <c r="B9" t="n">
-        <v>11459.13634502004</v>
+        <v>9738.798144142173</v>
       </c>
       <c r="C9" t="n">
-        <v>9546.202245206134</v>
+        <v>9352.137132133144</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -585,13 +585,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6894.856230649368</v>
+        <v>6042.388789639903</v>
       </c>
       <c r="B10" t="n">
-        <v>14031.05203030651</v>
+        <v>14288.82785481733</v>
       </c>
       <c r="C10" t="n">
-        <v>9971.954958179573</v>
+        <v>9322.746170417917</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -601,13 +601,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9542.631174276117</v>
+        <v>14640.29739348914</v>
       </c>
       <c r="B11" t="n">
-        <v>9268.132918267625</v>
+        <v>9097.418288294006</v>
       </c>
       <c r="C11" t="n">
-        <v>10728.36895600934</v>
+        <v>10453.60235486649</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -617,13 +617,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4863.380337959241</v>
+        <v>6183.845869640597</v>
       </c>
       <c r="B12" t="n">
-        <v>6641.451671972024</v>
+        <v>5509.906701445746</v>
       </c>
       <c r="C12" t="n">
-        <v>12102.02942511996</v>
+        <v>12248.06036492192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -633,13 +633,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4878.635914402971</v>
+        <v>7713.085654991702</v>
       </c>
       <c r="B13" t="n">
-        <v>7402.576263368919</v>
+        <v>6019.879310210479</v>
       </c>
       <c r="C13" t="n">
-        <v>12178.12914576127</v>
+        <v>12477.98036231627</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -649,13 +649,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6633.523935666184</v>
+        <v>7832.005212975603</v>
       </c>
       <c r="B14" t="n">
-        <v>9982.221067429229</v>
+        <v>11639.6915188784</v>
       </c>
       <c r="C14" t="n">
-        <v>11647.29866624803</v>
+        <v>10812.30866577247</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -665,13 +665,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7157.215147252278</v>
+        <v>6202.37451699747</v>
       </c>
       <c r="B15" t="n">
-        <v>5898.435957034599</v>
+        <v>4505.185428000039</v>
       </c>
       <c r="C15" t="n">
-        <v>11750.08541379732</v>
+        <v>11390.61542696177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5023.558016560493</v>
+        <v>5415.11721245517</v>
       </c>
       <c r="B16" t="n">
-        <v>7631.241994068225</v>
+        <v>5893.805814648877</v>
       </c>
       <c r="C16" t="n">
-        <v>12264.24748718721</v>
+        <v>12333.3583563561</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -697,13 +697,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4450.868655404543</v>
+        <v>6586.568614938989</v>
       </c>
       <c r="B17" t="n">
-        <v>10826.81625665831</v>
+        <v>12632.27070304493</v>
       </c>
       <c r="C17" t="n">
-        <v>10993.10555753548</v>
+        <v>10476.82483554471</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -713,13 +713,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4445.070202295979</v>
+        <v>6790.242446928141</v>
       </c>
       <c r="B18" t="n">
-        <v>6384.102594727798</v>
+        <v>5070.802071774351</v>
       </c>
       <c r="C18" t="n">
-        <v>14751.32692976574</v>
+        <v>16755.22089076741</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -729,13 +729,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4330.325400575594</v>
+        <v>5858.497093127792</v>
       </c>
       <c r="B19" t="n">
-        <v>6151.398541085918</v>
+        <v>4863.370315873375</v>
       </c>
       <c r="C19" t="n">
-        <v>12059.39806668797</v>
+        <v>11715.14856154468</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -745,13 +745,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6275.585532181611</v>
+        <v>7567.648594744945</v>
       </c>
       <c r="B20" t="n">
-        <v>7475.576969561138</v>
+        <v>7204.848756346868</v>
       </c>
       <c r="C20" t="n">
-        <v>11586.99052778178</v>
+        <v>11235.39196406886</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -761,13 +761,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4805.028667425584</v>
+        <v>7034.806285863204</v>
       </c>
       <c r="B21" t="n">
-        <v>9503.954375892208</v>
+        <v>9338.441883173798</v>
       </c>
       <c r="C21" t="n">
-        <v>10554.86405458917</v>
+        <v>9908.218356561689</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5823.175058100476</v>
+        <v>7890.340999215694</v>
       </c>
       <c r="B22" t="n">
-        <v>8380.780312961331</v>
+        <v>6857.327023743397</v>
       </c>
       <c r="C22" t="n">
-        <v>10089.87960863152</v>
+        <v>9381.640437877362</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -793,13 +793,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9536.1636346172</v>
+        <v>6640.896839781901</v>
       </c>
       <c r="B23" t="n">
-        <v>5723.398388914495</v>
+        <v>4309.144375248902</v>
       </c>
       <c r="C23" t="n">
-        <v>11455.40907375473</v>
+        <v>10673.51458689521</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -809,13 +809,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7216.844483482952</v>
+        <v>9910.713898033297</v>
       </c>
       <c r="B24" t="n">
-        <v>7350.250181904372</v>
+        <v>6605.196322721747</v>
       </c>
       <c r="C24" t="n">
-        <v>10352.09214999124</v>
+        <v>9589.096271319861</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -825,13 +825,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2853.778045228835</v>
+        <v>5601.236613839281</v>
       </c>
       <c r="B25" t="n">
-        <v>12070.35679396493</v>
+        <v>12954.94989985379</v>
       </c>
       <c r="C25" t="n">
-        <v>10588.5100628276</v>
+        <v>9766.102514174114</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
